--- a/data/trans_dic/P02E$ssociales-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P02E$ssociales-Clase-trans_dic.xlsx
@@ -706,23 +706,23 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.05028396208923799</v>
+        <v>0.04901509404810409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05758640585414756</v>
+        <v>0.06128683969031891</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02988085602524121</v>
+        <v>0.03605790010286431</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.02955736358161291</v>
+        <v>0.03098045648468052</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0188923289138099</v>
+        <v>0.01600442174511207</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01813909032870506</v>
+        <v>0.02051614715859943</v>
       </c>
     </row>
     <row r="7">
@@ -798,20 +798,20 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04502657561035812</v>
+        <v>0.04953659132335717</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.04362165551259709</v>
+        <v>0.0419079444380749</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.02102296469199958</v>
+        <v>0.0214558615572682</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02275455770594048</v>
+        <v>0.025148443386497</v>
       </c>
     </row>
     <row r="10">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01094008433707529</v>
+        <v>0.01316776387904045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007093007015552827</v>
+        <v>0.007172705612153644</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
@@ -878,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01000784757781659</v>
+        <v>0.01007147763198967</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00510657534427529</v>
+        <v>0.005096747946689633</v>
       </c>
     </row>
     <row r="12">
@@ -892,27 +892,27 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04168614901801005</v>
+        <v>0.04478071804830183</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06683879723735357</v>
+        <v>0.06545961488382099</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06597524426979409</v>
+        <v>0.06779571487524441</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.04743618261726619</v>
+        <v>0.04929444763954834</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02450000366695008</v>
+        <v>0.02391369190603829</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04530638766721938</v>
+        <v>0.0474564244014257</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04704952415732601</v>
+        <v>0.05114146779572934</v>
       </c>
     </row>
     <row r="13">
@@ -965,26 +965,26 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.005571953566232386</v>
+        <v>0.00542243971345328</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>0.004995863821500088</v>
+        <v>0.005106327091421306</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.007658545255259699</v>
+        <v>0.009243165231631226</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006868073811033912</v>
+        <v>0.006871193722246929</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006085646449904527</v>
+        <v>0.007100966442255092</v>
       </c>
     </row>
     <row r="15">
@@ -995,29 +995,29 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01686730492933603</v>
+        <v>0.0225692560502093</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0339036724231685</v>
+        <v>0.03184571246761071</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02931163993168258</v>
+        <v>0.02926490497051566</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>0.02856622127356991</v>
+        <v>0.02831957657553055</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04573366584117218</v>
+        <v>0.04202148686623128</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01144554038993327</v>
+        <v>0.01009256147689424</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02577810319732786</v>
+        <v>0.02432960204895696</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02819819495877483</v>
+        <v>0.02952649716869942</v>
       </c>
     </row>
     <row r="16">
@@ -1075,17 +1075,17 @@
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>0.00566489673913976</v>
+        <v>0.005628265091077615</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.003768963422331617</v>
+        <v>0.003764600731103249</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.005937575348591064</v>
+        <v>0.006066734390528388</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004911680851753209</v>
+        <v>0.004919254091132748</v>
       </c>
     </row>
     <row r="18">
@@ -1097,24 +1097,24 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.04392720451695954</v>
+        <v>0.05153947070762622</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04846636275108714</v>
+        <v>0.04908810434310548</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.03351476307116404</v>
+        <v>0.03428343861968338</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03259006747943425</v>
+        <v>0.03204035654490139</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.02759931573844344</v>
+        <v>0.02905474134731013</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02861219634664192</v>
+        <v>0.03000452548195845</v>
       </c>
     </row>
     <row r="19">
@@ -1171,17 +1171,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003535631222483381</v>
+        <v>0.003586639746248524</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01101432196187218</v>
+        <v>0.01098176973416599</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.003404169849708975</v>
+        <v>0.003443254951149741</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01369879759340526</v>
+        <v>0.01105040401570956</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
@@ -1196,26 +1196,26 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.4832977465797821</v>
+        <v>0.5110000004475816</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3339744394117403</v>
+        <v>0.3417502604020377</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03150513699912797</v>
+        <v>0.03165959909090447</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0499242678648484</v>
+        <v>0.04873842622333967</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.03059393944684787</v>
+        <v>0.02759835084722317</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.054105186185007</v>
+        <v>0.05061753930509386</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0311697479594407</v>
+        <v>0.03285587391353052</v>
       </c>
     </row>
     <row r="22">
@@ -1268,28 +1268,28 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0100660190429704</v>
+        <v>0.009196313508883336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006983161685762258</v>
+        <v>0.006954241133906963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.001763616506755177</v>
+        <v>0.001047603352739857</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.007936785995219424</v>
+        <v>0.008105240202043054</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.004706956993329222</v>
+        <v>0.004556294722004016</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.001738136362316614</v>
+        <v>0.001733998675008254</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01032202404665641</v>
+        <v>0.01028157938903074</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.006851676588313122</v>
+        <v>0.007261588347947814</v>
       </c>
     </row>
     <row r="24">
@@ -1300,31 +1300,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01039314820472961</v>
+        <v>0.01053968890093346</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02631763733475535</v>
+        <v>0.02537517110093993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02539847057390404</v>
+        <v>0.0243864577211583</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01080862705817823</v>
+        <v>0.01054195102188375</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01979957245381809</v>
+        <v>0.01997982074499313</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01680948403852539</v>
+        <v>0.01633267410662751</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.007840015474835474</v>
+        <v>0.007922026668744154</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01949182128182178</v>
+        <v>0.01981994780432421</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01675087353310305</v>
+        <v>0.01749688564724812</v>
       </c>
     </row>
     <row r="25">
@@ -1586,23 +1586,23 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4870</v>
+        <v>4748</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6114</v>
+        <v>6507</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4891</v>
+        <v>5903</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>6510</v>
+        <v>6823</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5942</v>
+        <v>5034</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4348</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="8">
@@ -1713,20 +1713,20 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>6957</v>
+        <v>7654</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>6864</v>
+        <v>6595</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>7409</v>
+        <v>7562</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>6019</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="12">
@@ -1814,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2127</v>
+        <v>2560</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>993</v>
+        <v>1004</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3040</v>
+        <v>3060</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15">
@@ -1842,27 +1842,27 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5030</v>
+        <v>5403</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12994</v>
+        <v>12725</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9238</v>
+        <v>9493</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>5189</v>
+        <v>5392</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4607</v>
+        <v>4497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13764</v>
+        <v>14417</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>9147</v>
+        <v>9943</v>
       </c>
     </row>
     <row r="16">
@@ -1950,26 +1950,26 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1903</v>
+        <v>1852</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>1991</v>
+        <v>2035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2367</v>
+        <v>2857</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5083</v>
+        <v>5086</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3440</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="19">
@@ -1980,29 +1980,29 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3942</v>
+        <v>5275</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11581</v>
+        <v>10878</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7507</v>
+        <v>7495</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="n">
-        <v>11386</v>
+        <v>11288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>14137</v>
+        <v>12990</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>5529</v>
+        <v>4875</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19080</v>
+        <v>18008</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15938</v>
+        <v>16689</v>
       </c>
     </row>
     <row r="20">
@@ -2095,17 +2095,17 @@
       </c>
       <c r="F22" s="6" t="inlineStr"/>
       <c r="G22" s="6" t="n">
-        <v>2026</v>
+        <v>2013</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>2927</v>
+        <v>2991</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="23">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>5943</v>
+        <v>6973</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6594</v>
+        <v>6678</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>11989</v>
+        <v>12264</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8131</v>
+        <v>7993</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>13607</v>
+        <v>14324</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11031</v>
+        <v>11568</v>
       </c>
     </row>
     <row r="24">
@@ -2226,17 +2226,17 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3156</v>
+        <v>3147</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>4037</v>
+        <v>3257</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
@@ -2251,26 +2251,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>3954</v>
+        <v>4181</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6460</v>
+        <v>6610</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7861</v>
+        <v>7900</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14304</v>
+        <v>13965</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>7945</v>
+        <v>7167</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>15945</v>
+        <v>14917</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6663</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="28">
@@ -2358,28 +2358,28 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9913</v>
+        <v>9057</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5276</v>
+        <v>5254</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1772</v>
+        <v>1053</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>12015</v>
+        <v>12270</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5213</v>
+        <v>5047</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2835</v>
+        <v>2828</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>25791</v>
+        <v>25690</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>12766</v>
+        <v>13529</v>
       </c>
     </row>
     <row r="31">
@@ -2390,31 +2390,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>6508</v>
+        <v>6600</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>25918</v>
+        <v>24990</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19189</v>
+        <v>18425</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>10860</v>
+        <v>10592</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>29973</v>
+        <v>30246</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>18618</v>
+        <v>18090</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12787</v>
+        <v>12920</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>48703</v>
+        <v>49523</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>31209</v>
+        <v>32599</v>
       </c>
     </row>
     <row r="32">
